--- a/public/static/resources/ModLabs/excel-to-handsontable.xlsx
+++ b/public/static/resources/ModLabs/excel-to-handsontable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysztofspilka/WebstormProjects/handsontable.com/handsontable.com-v2/public/static/resources/ModLabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysztofspilka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="4"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Styling" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>sfsd
 sda</t>
@@ -80,9 +80,6 @@
     <t>Yellow background</t>
   </si>
   <si>
-    <t>Double underlined text</t>
-  </si>
-  <si>
     <t>Calibri font family</t>
   </si>
   <si>
@@ -122,15 +119,6 @@
     <t>Center top aligned text</t>
   </si>
   <si>
-    <t>Three black letters and three red letters</t>
-  </si>
-  <si>
-    <t>Three underlined letters and three undercorated letters</t>
-  </si>
-  <si>
-    <t>Three bold letters and three normal weight letters</t>
-  </si>
-  <si>
     <t>40px font size</t>
   </si>
   <si>
@@ -458,72 +446,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <r>
-      <t>abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -546,12 +468,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Few lines of data (double click to see it)</t>
-  </si>
-  <si>
-    <t>No cell's border</t>
   </si>
   <si>
     <t>All borders solid thick</t>
@@ -568,6 +484,9 @@
   </si>
   <si>
     <t>Integer USD currency from integer value (123 &gt; 123 USD)</t>
+  </si>
+  <si>
+    <t>Multiple lines of text (double click to edit it)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +508,7 @@
     <numFmt numFmtId="175" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,15 +582,6 @@
     </font>
     <font>
       <u/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="double"/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -884,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,7 +827,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -963,16 +872,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,12 +891,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,23 +1211,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="17.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1243,7 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1365,300 +1275,267 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="43"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="E25" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+    </row>
+    <row r="30" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="43"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="E30" s="47" t="s">
-        <v>9</v>
-      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
-        <v>154</v>
-      </c>
+      <c r="A31" s="49"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-    </row>
-    <row r="35" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="56"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-    </row>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1914,11 +1791,6 @@
     <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="301" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1929,7 +1801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1940,15 +1814,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
@@ -1956,7 +1830,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1964,7 +1838,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10">
         <v>1.23</v>
@@ -1972,7 +1846,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <v>10010.25</v>
@@ -1980,7 +1854,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8">
         <v>123.12</v>
@@ -1988,7 +1862,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10">
         <v>123</v>
@@ -1996,7 +1870,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <v>123</v>
@@ -2004,7 +1878,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="12">
         <v>123.12</v>
@@ -2012,7 +1886,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="13">
         <v>123</v>
@@ -2020,7 +1894,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="14">
         <v>123</v>
@@ -2028,7 +1902,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15">
         <v>42865</v>
@@ -2036,7 +1910,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="16">
         <v>42865</v>
@@ -2044,7 +1918,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="17">
         <v>42865</v>
@@ -2052,7 +1926,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="18">
         <v>42865</v>
@@ -2060,7 +1934,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="19">
         <v>42865</v>
@@ -2068,7 +1942,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="20">
         <v>0.4513888888888889</v>
@@ -2076,7 +1950,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="21">
         <v>0.57638888888888895</v>
@@ -2084,7 +1958,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" s="22">
         <v>0.57638888888888895</v>
@@ -2092,7 +1966,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" s="23">
         <v>0.57703703703703701</v>
@@ -2100,7 +1974,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="24">
         <v>42865.576388888891</v>
@@ -2108,7 +1982,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="25">
         <v>123</v>
@@ -2116,7 +1990,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="25">
         <v>1.23</v>
@@ -2124,7 +1998,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="26">
         <v>1.23</v>
@@ -2132,7 +2006,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" s="25">
         <v>1</v>
@@ -2157,15 +2031,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
         <f>B3</f>
@@ -2174,7 +2048,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <f>1+2</f>
@@ -2183,7 +2057,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2">
         <f>1+2.25</f>
@@ -2192,7 +2066,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2">
         <f>1.27+2.25</f>
@@ -2201,7 +2075,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2">
         <f>B3+10</f>
@@ -2210,7 +2084,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <f>B2+B3</f>
@@ -2219,7 +2093,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <f>3-2</f>
@@ -2228,7 +2102,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
         <f>1-3</f>
@@ -2237,7 +2111,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2">
         <f>3.59-1</f>
@@ -2246,7 +2120,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2">
         <f>1-3.59</f>
@@ -2255,7 +2129,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2">
         <f>2*9</f>
@@ -2264,7 +2138,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2">
         <f>2.29*9</f>
@@ -2273,7 +2147,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2">
         <f>B2*3</f>
@@ -2282,7 +2156,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2">
         <f>2.29*B3</f>
@@ -2291,7 +2165,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <f>3/2</f>
@@ -2300,7 +2174,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <f>3/2.5</f>
@@ -2309,7 +2183,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <f>3/B7</f>
@@ -2318,7 +2192,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10">
         <f>3/B6</f>
@@ -2327,7 +2201,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="10">
         <f>3.59/B6</f>
@@ -2336,7 +2210,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" s="8">
         <f>'Cell types'!B3</f>
@@ -2345,7 +2219,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2">
         <f>SUM(B2:B3)</f>
@@ -2354,7 +2228,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B5)</f>
@@ -2362,10 +2236,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <f>AVERAGE(4,5,8)</f>
-        <v>5.666666666666667</v>
-      </c>
+      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,261 +2260,261 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -2668,10 +2539,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" s="62"/>
     </row>
@@ -2680,7 +2551,7 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="F2" s="61" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G2" s="61"/>
     </row>
@@ -2698,14 +2569,14 @@
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
       <c r="I4" s="59" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -2739,8 +2610,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
-      <c r="B9" s="66" t="s">
-        <v>156</v>
+      <c r="B9" s="64" t="s">
+        <v>147</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
@@ -2798,7 +2669,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J14" s="60" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
@@ -2815,9 +2686,9 @@
       <c r="O15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
@@ -2826,42 +2697,42 @@
       <c r="O16" s="60"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
